--- a/simulation_data/two_step_algorithm/2s_error_level_6_percent_water_99.xlsx
+++ b/simulation_data/two_step_algorithm/2s_error_level_6_percent_water_99.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>93.61761098834072</v>
+        <v>91.55870376027931</v>
       </c>
       <c r="D2" t="n">
-        <v>16.99716797389135</v>
+        <v>15.83737049483208</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>90.18961573693866</v>
+        <v>90.71428745623587</v>
       </c>
       <c r="D3" t="n">
-        <v>16.95113691016946</v>
+        <v>15.14667361988071</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>90.61694263181171</v>
+        <v>87.95481009850528</v>
       </c>
       <c r="D4" t="n">
-        <v>16.70208342902739</v>
+        <v>15.36819521707425</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>88.02062253337971</v>
+        <v>88.1274211185753</v>
       </c>
       <c r="D5" t="n">
-        <v>16.81967295206542</v>
+        <v>16.5650875007058</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>91.13781693757969</v>
+        <v>87.20963993907604</v>
       </c>
       <c r="D6" t="n">
-        <v>15.76122950312347</v>
+        <v>14.15022916786742</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>87.53277892891238</v>
+        <v>90.77553108473332</v>
       </c>
       <c r="D7" t="n">
-        <v>15.10987916277608</v>
+        <v>16.49154885251795</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>88.25418326939604</v>
+        <v>84.61552366637851</v>
       </c>
       <c r="D8" t="n">
-        <v>15.84435233477957</v>
+        <v>15.14996500876931</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>84.15522733806426</v>
+        <v>85.22254833039848</v>
       </c>
       <c r="D9" t="n">
-        <v>17.19143282720706</v>
+        <v>15.10731854338438</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>82.17310476694688</v>
+        <v>80.75620957318937</v>
       </c>
       <c r="D10" t="n">
-        <v>17.53892706209052</v>
+        <v>17.0346407774233</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>80.43866786692536</v>
+        <v>82.8312621841164</v>
       </c>
       <c r="D11" t="n">
-        <v>18.23861756240848</v>
+        <v>16.9813460678564</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>80.78120840496501</v>
+        <v>82.46269991875405</v>
       </c>
       <c r="D12" t="n">
-        <v>15.32524930763966</v>
+        <v>16.36126545927144</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>80.34458256488159</v>
+        <v>81.63737901293274</v>
       </c>
       <c r="D13" t="n">
-        <v>16.30974862893486</v>
+        <v>17.64020795120039</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>79.3545420006276</v>
+        <v>78.21270477982038</v>
       </c>
       <c r="D14" t="n">
-        <v>17.49025149987653</v>
+        <v>16.64264239404576</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>77.49291708343935</v>
+        <v>75.70421720125336</v>
       </c>
       <c r="D15" t="n">
-        <v>15.24451113491595</v>
+        <v>15.54897641533574</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>78.72226165138122</v>
+        <v>75.38338176033379</v>
       </c>
       <c r="D16" t="n">
-        <v>15.04938816875844</v>
+        <v>15.7952750652582</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>76.73913463471425</v>
+        <v>75.27549524168315</v>
       </c>
       <c r="D17" t="n">
-        <v>15.04291476984333</v>
+        <v>15.91749328395624</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>74.51988196542351</v>
+        <v>73.85766483569061</v>
       </c>
       <c r="D18" t="n">
-        <v>16.29093549348937</v>
+        <v>16.83592827367173</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>75.35255679331839</v>
+        <v>76.18730357625144</v>
       </c>
       <c r="D19" t="n">
-        <v>16.33886880134021</v>
+        <v>14.70786084072247</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>70.65615808911448</v>
+        <v>72.5884859082848</v>
       </c>
       <c r="D20" t="n">
-        <v>13.96277020869305</v>
+        <v>16.29264869483555</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>68.20458698954532</v>
+        <v>74.22274322403457</v>
       </c>
       <c r="D21" t="n">
-        <v>16.77344115501233</v>
+        <v>14.96498009754476</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>68.63446808324568</v>
+        <v>68.62089555434488</v>
       </c>
       <c r="D22" t="n">
-        <v>16.71949838026432</v>
+        <v>16.0810902976435</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>71.9573718572762</v>
+        <v>68.74343943227497</v>
       </c>
       <c r="D23" t="n">
-        <v>16.18804394832615</v>
+        <v>16.98410298615181</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>68.46465842238557</v>
+        <v>66.67230517931043</v>
       </c>
       <c r="D24" t="n">
-        <v>15.8792437119968</v>
+        <v>14.99542491805354</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>67.77832887664415</v>
+        <v>66.4873155215523</v>
       </c>
       <c r="D25" t="n">
-        <v>16.69182140565081</v>
+        <v>14.21597032811657</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>65.40057372439341</v>
+        <v>67.46649719980662</v>
       </c>
       <c r="D26" t="n">
-        <v>15.55393577057851</v>
+        <v>15.51758081635153</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>63.83678161909061</v>
+        <v>66.53397778522799</v>
       </c>
       <c r="D27" t="n">
-        <v>14.85435602944952</v>
+        <v>13.49827519028109</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>64.61939956966708</v>
+        <v>61.52176324081454</v>
       </c>
       <c r="D28" t="n">
-        <v>15.14622280350127</v>
+        <v>15.70109386182525</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>66.73572079052232</v>
+        <v>62.66963089716533</v>
       </c>
       <c r="D29" t="n">
-        <v>16.30534144843925</v>
+        <v>15.5185649220595</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>62.31446706764384</v>
+        <v>64.66860969265528</v>
       </c>
       <c r="D30" t="n">
-        <v>17.26474432811685</v>
+        <v>15.64104393007995</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>58.60950999120688</v>
+        <v>62.2098459290126</v>
       </c>
       <c r="D31" t="n">
-        <v>16.06852774182688</v>
+        <v>15.48769623305759</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>60.51965450143007</v>
+        <v>58.89990733477927</v>
       </c>
       <c r="D32" t="n">
-        <v>15.84499924630255</v>
+        <v>15.74146916349706</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>58.96437227195158</v>
+        <v>58.74195744332317</v>
       </c>
       <c r="D33" t="n">
-        <v>16.12841634681465</v>
+        <v>16.84929553522163</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>57.5699691719668</v>
+        <v>61.04121952844463</v>
       </c>
       <c r="D34" t="n">
-        <v>13.13065963331892</v>
+        <v>15.61722320266794</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>57.23666648058418</v>
+        <v>59.06420160558606</v>
       </c>
       <c r="D35" t="n">
-        <v>14.82777022339409</v>
+        <v>15.89335469058287</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>61.18997854237561</v>
+        <v>55.70344065914007</v>
       </c>
       <c r="D36" t="n">
-        <v>16.45241490882816</v>
+        <v>14.53937668351653</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>53.78021954324537</v>
+        <v>52.74630747530426</v>
       </c>
       <c r="D37" t="n">
-        <v>13.70798291063718</v>
+        <v>16.88120888154194</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>54.54436917594893</v>
+        <v>55.34480600028477</v>
       </c>
       <c r="D38" t="n">
-        <v>17.05950346327629</v>
+        <v>15.5283023132717</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>53.07007224157547</v>
+        <v>54.12148218891281</v>
       </c>
       <c r="D39" t="n">
-        <v>15.35858472523114</v>
+        <v>15.62342841189787</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>50.18782670908682</v>
+        <v>53.11048806769193</v>
       </c>
       <c r="D40" t="n">
-        <v>17.7014202156034</v>
+        <v>15.9587579760853</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>51.14334444628408</v>
+        <v>50.02673079600784</v>
       </c>
       <c r="D41" t="n">
-        <v>15.24029687717357</v>
+        <v>14.63333309286655</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>50.6925155598259</v>
+        <v>48.43004156459669</v>
       </c>
       <c r="D42" t="n">
-        <v>15.14247289084014</v>
+        <v>15.58762015997962</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>47.68102443397602</v>
+        <v>48.18732001428666</v>
       </c>
       <c r="D43" t="n">
-        <v>13.98342161029443</v>
+        <v>16.75647735246046</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>47.08079721271471</v>
+        <v>47.58809968448408</v>
       </c>
       <c r="D44" t="n">
-        <v>15.71670223871721</v>
+        <v>15.86759770863556</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>45.73571122194029</v>
+        <v>48.05122109414454</v>
       </c>
       <c r="D45" t="n">
-        <v>15.87266534826367</v>
+        <v>14.06510494251844</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>42.78366043334137</v>
+        <v>49.18747595346048</v>
       </c>
       <c r="D46" t="n">
-        <v>16.75769060163048</v>
+        <v>14.04793792997286</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>43.03368040588076</v>
+        <v>46.51563817886274</v>
       </c>
       <c r="D47" t="n">
-        <v>15.07414994900194</v>
+        <v>16.58460352907542</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>41.13901058184665</v>
+        <v>42.44460326957623</v>
       </c>
       <c r="D48" t="n">
-        <v>14.39357547107208</v>
+        <v>16.65110708349742</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>45.21624623684102</v>
+        <v>43.82588303144209</v>
       </c>
       <c r="D49" t="n">
-        <v>16.65001733790903</v>
+        <v>15.43286595306309</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>45.64195790124569</v>
+        <v>42.32950428589513</v>
       </c>
       <c r="D50" t="n">
-        <v>14.32342324418062</v>
+        <v>16.15757821170538</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>41.54405249105528</v>
+        <v>41.79277454015821</v>
       </c>
       <c r="D51" t="n">
-        <v>16.96174360776186</v>
+        <v>16.26879031218742</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>40.17998367000323</v>
+        <v>38.8251776476099</v>
       </c>
       <c r="D52" t="n">
-        <v>14.69173768476586</v>
+        <v>13.85643147139442</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>38.40784649037397</v>
+        <v>40.34797132187859</v>
       </c>
       <c r="D53" t="n">
-        <v>15.66287767103711</v>
+        <v>15.30917692667442</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>36.53715342236162</v>
+        <v>38.68405957346495</v>
       </c>
       <c r="D54" t="n">
-        <v>16.31293066001588</v>
+        <v>14.60799013506726</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>35.92337272317971</v>
+        <v>35.78437144439108</v>
       </c>
       <c r="D55" t="n">
-        <v>17.26355341782512</v>
+        <v>16.95237996131906</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>35.91274172243725</v>
+        <v>34.62732349194988</v>
       </c>
       <c r="D56" t="n">
-        <v>15.54722273786523</v>
+        <v>14.58823744925988</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>35.25448610052705</v>
+        <v>33.96424888949107</v>
       </c>
       <c r="D57" t="n">
-        <v>16.18436820846358</v>
+        <v>14.37039114100759</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>33.82117383446799</v>
+        <v>31.83993924041508</v>
       </c>
       <c r="D58" t="n">
-        <v>16.67055403222845</v>
+        <v>13.59509729618711</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>29.98389325146749</v>
+        <v>31.91435395077079</v>
       </c>
       <c r="D59" t="n">
-        <v>15.47892023061125</v>
+        <v>15.48590041936692</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>33.01152371379879</v>
+        <v>30.60823578828822</v>
       </c>
       <c r="D60" t="n">
-        <v>14.83078510087884</v>
+        <v>14.69039674177153</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>29.71467517217335</v>
+        <v>30.15545011458284</v>
       </c>
       <c r="D61" t="n">
-        <v>16.30522396864888</v>
+        <v>16.40649130374863</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>30.22491345306078</v>
+        <v>27.82427845394548</v>
       </c>
       <c r="D62" t="n">
-        <v>14.75553246665804</v>
+        <v>15.45600026639422</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>32.89391624884416</v>
+        <v>30.74472886837606</v>
       </c>
       <c r="D63" t="n">
-        <v>15.76004467358638</v>
+        <v>14.77405385864252</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>28.7235053782648</v>
+        <v>27.94199741124146</v>
       </c>
       <c r="D64" t="n">
-        <v>15.87001446483602</v>
+        <v>15.50830111265689</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>27.35206741295088</v>
+        <v>28.22431815159739</v>
       </c>
       <c r="D65" t="n">
-        <v>16.57916860800913</v>
+        <v>15.10238350421832</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>25.8675374306646</v>
+        <v>29.11680638098831</v>
       </c>
       <c r="D66" t="n">
-        <v>16.24265775442228</v>
+        <v>15.20203795013524</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>23.86317541941031</v>
+        <v>22.8325956595119</v>
       </c>
       <c r="D67" t="n">
-        <v>15.26932904216348</v>
+        <v>14.90347177360638</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>23.88448554894434</v>
+        <v>25.69141293533784</v>
       </c>
       <c r="D68" t="n">
-        <v>17.49209151491855</v>
+        <v>17.82466430118848</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>24.48321198699814</v>
+        <v>26.72513821117309</v>
       </c>
       <c r="D69" t="n">
-        <v>15.7994296293902</v>
+        <v>15.24939690940618</v>
       </c>
     </row>
   </sheetData>
